--- a/P0021/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0021/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0021\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0021/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA80EAEF-5550-4412-9473-5F57B7EB9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{CA80EAEF-5550-4412-9473-5F57B7EB9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D3A72D-24F5-474D-B6CF-1E740D54504F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24810" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="270" windowWidth="10050" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,164 +36,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>FORMATO</t>
+  </si>
+  <si>
+    <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>CONTIENE ANEXOS</t>
+  </si>
+  <si>
+    <t>ANEXOS</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0021</t>
+  </si>
   <si>
     <t>PR0001</t>
   </si>
   <si>
+    <t>P01.1-ANALISIS INF_P2974_v02.01-Sello Interventoria</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 1/P01.1-ANALISIS INF_P2974_v02.01-Sello Interventoria.pdf</t>
+  </si>
+  <si>
+    <t>CONSULTORES DE INGENIERÍA UG21</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>El documento corresponde al producto No. 1.1. “Recopilación, Revisión y Análisis de Información Secundaria” del contrato de consultoría No. 184 – 2017. En el cual se revisa información tanto del Fondo Adaptación como de terceros, para la valoración de alternativas de obras de protección para reducir el riesgo por inundación de los cascos urbanos de los Municipios de San Marcos (Sucre) y Magangué (Bolívar). La información que contiene el documento por componente se divide en: información ambiental, información predial, topografía, estudios de hidrología, hidráulica y socavación, información geomorfológica y geológica, estudios geotécnicos, estudios y diseños estructurales y estudios de materiales.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El objeto del documento es un levantamiento de información secundaria para definir las obras de protección óptimas y costos eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). El documento se divide en según el tipo de información revisada (información ambiental, información predial, topografía, estudios de hidrología, hidráulica y socavación, información geomorfológica y geológica, estudios geotécnicos, estudios y diseños estructurales y estudios de materiales). Para cada componente se registran los documentos revisados, se realiza un breve análisis de la información recopilada y se formulan conclusiones de la temática para ambos municipios, con el fin de establecer la viabilidad del proyecto, se describe las condiciones ambientales (bióticas y abióticas) de los municipios San Marcos y Magangué a la fecha de publicación del documento y se identifica la información faltante. Por último, el documento contiene los anexos que se en listan a continuación: Anexo I.- Localización general área de estudio, Anexo II.- Resultados del cálculo del dique sur de Magangué, Anexo III.- Resultados del cálculo del muro de Magangué, Anexo IV.- Planos de fuentes de materiales cercanas a los cascos urbanos de San Marcos y Magangué.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>El documento contiene información pertinente y de buena calidad</t>
+  </si>
+  <si>
+    <t>Información secundaria, San Marcos, Magangué, información ambiental, información predial, topografía, hidrología, hidráulica, socavación, geomorfología, geología, estudios geotécnicos, estudios y diseños estructurales, estudios de materiales, riesgo por inundación</t>
+  </si>
+  <si>
     <t>PR0002</t>
   </si>
   <si>
+    <t>P01.2-LEV INF CAMPO_P2974_v03.01 - Sello Interventoria</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 1/PRODUCTO 1.2/P01.2-LEV INF CAMPO_P2974_v03.01 - Sello Interventoria.pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde al producto No. 1.2. “Resultados del Levantamiento de la Información de Campo” del contrato de consultoría No. 184 – 2017, para la valoración de alternativas de obras de protección para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). La información que se presenta en este informe está asociada a las siguientes áreas del proyecto: Estudio de geología, Estudio geotécnico, estudio de materiales y actualización del modelo digital del terreno (Topografía).</t>
+  </si>
+  <si>
+    <t>Este documento presenta los resultados del levantamiento de información de campo. El estudio de geología se realizó en los sectores de San Marcos (norte - cantera Santo Domingo y suroccidental El Valle) y Magangué (cantera Gualón). En cuanto a la geotecnia, se llevó a cabo una campaña de exploración geotécnica con métodos directos (perforaciones, SPT, muestras inalteradas) e indirectos (líneas sísmicas). Por otro lado, se caracterizó el perfil del suelo y se determinaron las propiedades geomecánicas para cada municipio. El estudio de materiales identificó y evaluó las fuentes de materiales y zonas de disposición de material excedente (ZODMES) en ambos municipios. Además, se realizaron ensayos de laboratorio para determinar las características de los materiales. Para el estudio de topografía se ejecutaron vuelos con aeronaves no tripuladas para actualizar los modelos digitales de terreno (DTM) de las áreas de estudio. En adición, se realizó un fotocontrol utilizando vértices geodésicos y se generaron ortomosaicos, modelos digitales de superficie (DSM) y modelos digitales de terreno (DTM) a partir del procesamiento de las fotografías aéreas. Por último, se llevó a cabo un levantamiento topográfico de detalle en las estaciones de bombeo norte y sur de Magangué, y se calibraron las miras limnigráficas en Magangué y San Marcos. Los resultados de estos estudios se usaron como insumo para definir las obras de protección óptimas y costos eficientes para reducir el riesgo por inundación en los cascos urbanos de San Marcos y Magangué, en el marco del Contrato de Consultoría No. 184-2017.</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>ANEXOS 1.2 
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 1/PRODUCTO 1.2/ANEXOS 1.2</t>
+  </si>
+  <si>
+    <t>San Marcos, Magangué, topografía, modelo digital del terreno, geología, estudios geotécnicos, estudios de materiales, riesgo por inundación</t>
+  </si>
+  <si>
     <t>PR0003</t>
   </si>
   <si>
+    <t>P01.3-ESTR MATRIZ_P2974_v02.01-Sello Interventoria</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 1/P01.3-ESTR MATRIZ_P2974_v02.01-Sello Interventoria.pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde al producto No. 1.3. “Estructura de Matriz de Análisis de Alternativas” como parte del Contrato de Consultoría No. 184 – 2017, que tiene como objetivo definir las obras de protección óptimas y costo eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). En el documento se detallan los componentes de valoración (Socioeconómico, Técnico y Medioambiental), pesos y puntuación asignada, y la estructura de la matriz de análisis de alternativas.</t>
+  </si>
+  <si>
+    <t>El documento describe la construcción de una matriz de análisis de alternativas con el fin de ponderar y evaluar los distintos aspectos, tanto favorables como desfavorables que intervienen en las distintas alternativas propuestas, con la finalidad de seleccionar la opción más ventajosa globalmente. La matriz se construyó en base a la metodología Proceso Analítico Jerárquico (PAJ), el cual permite identificar las partes del sistema, reconocer los pesos de las partes del sistema, identificar vínculos entre las partes y proponer una solución racional. Los componentes de valoración estudiados son: Socioeconómico, Técnico y Medioambiental. Para el componente socioeconómico, toma en cuenta el impacto social, los costos de operación y mantenimiento, costos de construcción (Sin materiales), fuentes de materiales y costo predial. En cuanto al componente técnico, considera soluciones auxiliares, dificultad constructiva, capacidad de ampliación, tiempo de ejecución y mejor solución técnica. Por último, para el componente medioambiental, incluye los ZODME, fuentes de materiales, tramitación de licencias y permisos, el medio biótico (Flora y Fauna) y el medio físico (área afectada).</t>
+  </si>
+  <si>
+    <t>El documento contiene información pertinente y de buena calidad en cuanto a la metodología de contrucción de matrices de análisis de alternativas</t>
+  </si>
+  <si>
+    <t>San Marcos, Magangué, matriz de alternativas, proceso analítico jerárquico, PAJ, selección de alternativas, metodología, componentes de valoración, socioeconómico, técnico y medioambiental, impacto social, costos de operación y mantenimiento, costos de construcción, fuentes de materiales, costo predial, soluciones auxiliares, dificultad constructiva, capacidad de ampliación, tiempo de ejecución, solución técnica, ZODME, tramitación de licencias y permisos, medio biótico, medio físico</t>
+  </si>
+  <si>
     <t>PR0004</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>CODIGO DE PROYECTO</t>
-  </si>
-  <si>
-    <t>CODIGO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>NOMBRE DEL PRODUCTO</t>
-  </si>
-  <si>
-    <t>DIRECTORIO</t>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>AUTOR 1</t>
-  </si>
-  <si>
-    <t>AUTOR 2</t>
-  </si>
-  <si>
-    <t>AUTOR 3</t>
-  </si>
-  <si>
-    <t>AUTOR 4</t>
-  </si>
-  <si>
-    <t>AUTOR 5</t>
-  </si>
-  <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t>TIPO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>FORMATO</t>
-  </si>
-  <si>
-    <t>RESUMEN</t>
-  </si>
-  <si>
-    <t>CONTIENE ANEXOS</t>
-  </si>
-  <si>
-    <t>ANEXOS</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>PALABRAS CLAVE</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>P0021</t>
-  </si>
-  <si>
-    <t>P01.1-ANALISIS INF_P2974_v02.01-Sello Interventoria</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 1/P01.1-ANALISIS INF_P2974_v02.01-Sello Interventoria.pdf</t>
-  </si>
-  <si>
-    <t>UG21</t>
-  </si>
-  <si>
-    <t>El documento corresponde al producto No. 1.1. “Recopilación, Revisión y Análisis de Información Secundaria” del contrato de consultoría No. 184 – 2017. En el cual se revisa información tanto del Fondo Adaptación como de terceros, para la valoración de alternativas de obras de protección para reducir el riesgo por inundación de los cascos urbanos de los Municipios de San Marcos (Sucre) y Magangué (Bolívar). La información que contiene el documento por componente se divide en: información ambiental, información predial, topografía, estudios de hidrología, hidráulica y socavación, información geomorfológica y geológica, estudios geotécnicos, estudios y diseños estructurales y estudios de materiales.</t>
-  </si>
-  <si>
-    <t>Informe</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>El objeto del documento es un levantamiento de información secundaria para definir las obras de protección óptimas y costos eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). El documento se divide en según el tipo de información revisada (información ambiental, información predial, topografía, estudios de hidrología, hidráulica y socavación, información geomorfológica y geológica, estudios geotécnicos, estudios y diseños estructurales y estudios de materiales). Para cada componente se registran los documentos revisados, se realiza un breve análisis de la información recopilada y se formulan conclusiones de la temática para ambos municipios, con el fin de establecer la viabilidad del proyecto, se describe las condiciones ambientales (bióticas y abióticas) de los municipios San Marcos y Magangué a la fecha de publicación del documento y se identifica la información faltante. Por último, el documento contiene los anexos que se en listan a continuación: Anexo I.- Localización general área de estudio, Anexo II.- Resultados del cálculo del dique sur de Magangué, Anexo III.- Resultados del cálculo del muro de Magangué, Anexo IV.- Planos de fuentes de materiales cercanas a los cascos urbanos de San Marcos y Magangué.</t>
-  </si>
-  <si>
-    <t>El documento contiene información pertinente y de buena calidad</t>
-  </si>
-  <si>
-    <t>Información secundaria, San Marcos, Magangué, Información ambiental, Información predial, Topografía, Hidrología, Hidráulica, Socavación, Geomorfología, Geología, Estudios geotécnicos, Estudios y Diseños estructurales, Estudios de materiales, Riesgo por inundación</t>
-  </si>
-  <si>
-    <t>P01.2-LEV INF CAMPO_P2974_v03.01 - Sello Interventoria</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 1/PRODUCTO 1.2/P01.2-LEV INF CAMPO_P2974_v03.01 - Sello Interventoria.pdf</t>
-  </si>
-  <si>
-    <t>El documento corresponde al producto No. 1.2. “Resultados del Levantamiento de la Información de Campo” del contrato de consultoría No. 184 – 2017, para la valoración de alternativas de obras de protección para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). La información que se presenta en este informe está asociada a las siguientes áreas del proyecto: Estudio de geología, Estudio geotécnico, estudio de materiales y actualización del modelo digital del terreno (Topografía).</t>
-  </si>
-  <si>
-    <t>Este documento presenta los resultados del levantamiento de información de campo. El estudio de geología se realizó en los sectores de San Marcos (norte - cantera Santo Domingo y suroccidental El Valle) y Magangué (cantera Gualón). En cuanto a la geotecnia, se llevó a cabo una campaña de exploración geotécnica con métodos directos (perforaciones, SPT, muestras inalteradas) e indirectos (líneas sísmicas). Por otro lado, se caracterizó el perfil del suelo y se determinaron las propiedades geomecánicas para cada municipio. El estudio de materiales identificó y evaluó las fuentes de materiales y zonas de disposición de material excedente (ZODMES) en ambos municipios. Además, se realizaron ensayos de laboratorio para determinar las características de los materiales. Para el estudio de topografía se ejecutaron vuelos con aeronaves no tripuladas para actualizar los modelos digitales de terreno (DTM) de las áreas de estudio. En adición, se realizó un fotocontrol utilizando vértices geodésicos y se generaron ortomosaicos, modelos digitales de superficie (DSM) y modelos digitales de terreno (DTM) a partir del procesamiento de las fotografías aéreas. Por último, se llevó a cabo un levantamiento topográfico de detalle en las estaciones de bombeo norte y sur de Magangué, y se calibraron las miras limnigráficas en Magangué y San Marcos. Los resultados de estos estudios se usaron como insumo para definir las obras de protección óptimas y costos eficientes para reducir el riesgo por inundación en los cascos urbanos de San Marcos y Magangué, en el marco del Contrato de Consultoría No. 184-2017.</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>ANEXOS 1.2</t>
-  </si>
-  <si>
-    <t>San Marcos, Magangué, Topografía, Modelo Digital del Terreno, Geología, Estudios geotécnicos, Estudios de materiales, Riesgo por inundación</t>
-  </si>
-  <si>
-    <t>P01.3-ESTR MATRIZ_P2974_v02.01-Sello Interventoria</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 1/P01.3-ESTR MATRIZ_P2974_v02.01-Sello Interventoria.pdf</t>
-  </si>
-  <si>
-    <t>El documento corresponde al producto No. 1.3. “Estructura de Matriz de Análisis de Alternativas” como parte del Contrato de Consultoría No. 184 – 2017, que tiene como objetivo definir las obras de protección óptimas y costo eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). En el documento se detallan los componentes de valoración (Socioeconómico, Técnico y Medioambiental), pesos y puntuación asignada, y la estructura de la matriz de análisis de alternativas.</t>
-  </si>
-  <si>
-    <t>El documento describe la construcción de una matriz de análisis de alternativas con el fin de ponderar y evaluar los distintos aspectos, tanto favorables como desfavorables que intervienen en las distintas alternativas propuestas, con la finalidad de seleccionar la opción más ventajosa globalmente. La matriz se construyó en base a la metodología Proceso Analítico Jerárquico (PAJ), el cual permite identificar las partes del sistema, reconocer los pesos de las partes del sistema, identificar vínculos entre las partes y proponer una solución racional. Los componentes de valoración estudiados son: Socioeconómico, Técnico y Medioambiental. Para el componente socioeconómico, toma en cuenta el impacto social, los costos de operación y mantenimiento, costos de construcción (Sin materiales), fuentes de materiales y costo predial. En cuanto al componente técnico, considera soluciones auxiliares, dificultad constructiva, capacidad de ampliación, tiempo de ejecución y mejor solución técnica. Por último, para el componente medioambiental, incluye los ZODME, fuentes de materiales, tramitación de licencias y permisos, el medio biótico (Flora y Fauna) y el medio físico (área afectada).</t>
-  </si>
-  <si>
-    <t>El documento contiene información pertinente y de buena calidad en cuanto a la metodología de contrucción de matrices de análisis de alternativas</t>
-  </si>
-  <si>
-    <t>San Marcos, Magangué, Matriz de alternativas, Proceso Analítico Jerárquico, PAJ, Selección de alternativas, Metodología, Componentes de valoración, Socioeconómico, Técnico y Medioambiental, Impacto social, Costos de operación y mantenimiento, Costos de construcción, Fuentes de materiales, Costo predial, Soluciones auxiliares, Dificultad constructiva, Capacidad de ampliación, Tiempo de ejecución, Solución técnica, ZODME, Tramitación de licencias y permisos, Medio biótico, Medio físico</t>
-  </si>
-  <si>
     <t>P02-AN ALTERNATIVAS_P2974_v02.02 - Sello Interventoria</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/P02-AN ALTERNATIVAS_P2974_v02.02 - Sello Interventoria.pdf</t>
   </si>
   <si>
-    <t>El documento corresponde al producto No. 2. “Análisis de Alternativas” como parte del Contrato de Consultoría No. 184 – 2017, que tiene como objeto definir las obras de protección óptimas y costo eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). El documento se divide en seis (6) capítulos los cuales son: Introducción, Estudio de hidrología, hidráulica y socavación, Definición de alternativas, Análisis de alternativas, Conclusiones y Resultados de la matriz de análisis de las alternativas</t>
+    <t>El documento corresponde al producto No. 2. “Análisis de Alternativas” como parte del Contrato de Consultoría No. 184 – 2017, que tiene como objeto definir las obras de protección óptimas y costo eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). El documento se divide en seis (6) capítulos los cuales son: Introducción, Estudio de hidrología, hidráulica y socavación, Definición de alternativas, Análisis de alternativas, Conclusiones y Resultados de la matriz de análisis de las alternativas.</t>
   </si>
   <si>
     <t>En el documento se desarrolla la definición y el análisis de las alternativas planteadas desde el punto de vista social, técnico y ambiental, que pueden considerarse para la ejecución de la ingeniería básica del proyecto que tiene como objeto: “Definir las obras de protección óptimas y costo eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar)”. En primer lugar, el documento presenta una propuesta preliminar de las cotas de diseño de las alternativas, a partir de estudios de hidrología, hidráulica y socavación para los municipios de San Marcos y Magangué. Posteriormente, se desarrolla la definición de cada una de las alternativas, considerando aspectos geotécnicos, estructurales, de materiales, presupuesto y especificaciones técnicas. Las alternativas planteadas en el documento son: Muro de Terraplén, Muro en Suelos Reforzados, Muro de Concreto, Muro de Concreto sobre Pilotes y Tablestacado. Finalmente, se realiza el análisis y valoración de cada una de las alternativas de acuerdo con la metodología de la matriz de análisis multicriterio que se describió en el producto No. 1.3. “Estructura de Matriz de Análisis de Alternativas”</t>
   </si>
   <si>
-    <t>ANEXOS. I-VIII_x000D_
-Anexo IX MEMORIA DE CALCULO ALCANTARILLADO_x000D_
-ANEXO X</t>
+    <t>ANEXOS. I-VIII  s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXOS. I-VIII
+Anexo IX MEMORIA DE CALCULO ALCANTARILLADO    s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/Anexo IX MEMORIA DE CALCULO ALCANTARILLADO"
+ANEXO X   s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXO X</t>
   </si>
   <si>
     <t>El documento contiene información pertinente para la selección de alternativas de infrastructura de muros de contención</t>
@@ -202,31 +203,121 @@
     <t>San Marcos, Magangué, Sucre, Bolívar, Riesgo de inundación, Protección contra inundaciones, Matriz de alternativas, Análisis de alternativas, Infraestructura, Obras de protección, Muros de contención, Hidrología, Hidráulica, Geología, Geotecnia, Estructuras, Presupuesto, Especificaciones técnicas, Evaluación de riesgos, Impacto ambiental</t>
   </si>
   <si>
+    <t>PR0005</t>
+  </si>
+  <si>
     <t>P03-DIS BASICO_P2974_v02.03 - Sello Interventoría</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/P03-DIS BASICO_P2974_v02.03 - Sello Interventoría.pdf</t>
   </si>
   <si>
-    <t>El documento corresponde al producto No. 3. “Diseño Básico de las Alternativas Óptimas” como parte del Contrato de Consultoría No. 184 – 2017, que tiene como objeto definir las obras de protección óptimas y costo eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). El documento expone los estudios hidráulicos, geotécnicos, estructurales y prediales, que justifican las estructuras de protección propuestas para ambos municipios. Posteriormente, detalla los presupuestos de las alternativas y finalmente realiza las especificaciones técnicas básicas de los ítems más importantes</t>
+    <t>El documento corresponde al producto No. 3. “Diseño Básico de las Alternativas Óptimas” como parte del Contrato de Consultoría No. 184 – 2017, que tiene como objeto definir las obras de protección óptimas y costo eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). El documento expone los estudios hidráulicos, geotécnicos, estructurales y prediales, que justifican las estructuras de protección propuestas para ambos municipios. Posteriormente, detalla los presupuestos de las alternativas y finalmente realiza las especificaciones técnicas básicas de los ítems más importantes.</t>
   </si>
   <si>
     <t>El documento desarrolla las alternativas seleccionadas a nivel de diseño básico y siguiendo el siguiente esquema: 1. Estudio de Hidrología, Hidráulica y Socavación. Con estos estudios se detalla los sistemas hídricos, tanto lóticos como lénticos de los municipios de San Marcos y Magangué. Además, se realiza el análisis de alternativas con la misma estructura del producto dos (2) pero a partir de los datos generados en esta consultoría. 2. Diseño geotécnico básico, el cual tiene como objetivo calcular y efectuar el análisis de la capacidad portante y de los asentamientos que se pueden generar en el terreno por las estructuras proyectadas para el control de inundación en fase de prefactibilidad, con el fin de dar la recomendación del tipo y profundidad de la cimentación para estas estructuras. 3. Criterios de cálculo y justificación del diseño. En esta sección se incluyen las bases consideradas en el diseño preliminar de las diferentes alternativas de proyección que resultaron seleccionadas. 4. Componente predial, aquí se incluye el análisis predial necesario para la implementación de las obras. 5. Estructuras de protección propuestas, en este apartado se resumen las estructuras de protección finalmente seleccionadas, cuyo diseño ha sido justificado en base a los estudios hidráulicos, geotécnicos, estructurales y prediales desarrollados en capítulos anteriores. 6. Consideraciones ambientales, en este componente se describe brevemente las estrategias que contemplan las alternativas seleccionadas para proteger el componente medioambiental. 7. Cantidades de obra y presupuesto y 8. Especificaciones técnicas</t>
   </si>
   <si>
-    <t>ANEXO I PLANOS_x000D_
-ANEXO II TCC_x000D_
-ANEXO III_x000D_
-ANEXO IV MEMORIAS HIDRAÚLICA_x000D_
-ANEXO V MEMORIAS ALCANTARILLADO_x000D_
-ANEXO VI MEMORIAS ELECTROMECANICO_x000D_
-ANEXO VII GEOLOGÍA Y GEOTECNIA</t>
-  </si>
-  <si>
     <t>San Marcos, Magangué, Sucre, Bolívar, Riesgo de inundación, Protección contra inundaciones, Matriz de alternativas, Análisis de alternativas, Infraestructura, Obras de protección, Muros de contención, Hidrología, Hidráulica, Socavación, Geología, Geotecnia, Estructuras, Estructuras de protección, Presupuesto, Especificaciones técnicas, Evaluación de riesgos, Impacto ambiental, Información predial</t>
   </si>
   <si>
-    <t>PR0005</t>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>ANEXO III LISTADOS DE CÁLCULO</t>
+  </si>
+  <si>
+    <t>PR0007</t>
+  </si>
+  <si>
+    <t>Anexo 1_Registros de exploracion</t>
+  </si>
+  <si>
+    <t>PR0008</t>
+  </si>
+  <si>
+    <t>Anexo 2_Ensayos de laboratorio</t>
+  </si>
+  <si>
+    <t>PR0009</t>
+  </si>
+  <si>
+    <t>Anexo 3_ Normalizacion SPT</t>
+  </si>
+  <si>
+    <t>PR0010</t>
+  </si>
+  <si>
+    <t>Anexo 4_Analisis de datos</t>
+  </si>
+  <si>
+    <t>PR0011</t>
+  </si>
+  <si>
+    <t>Anexo 5_Memorias de calculo</t>
+  </si>
+  <si>
+    <t>PR0012</t>
+  </si>
+  <si>
+    <t>ASENTAMIENTO MAGANGUÉ</t>
+  </si>
+  <si>
+    <t>PR0013</t>
+  </si>
+  <si>
+    <t>ASENTAMIENTO SAN MARCOS</t>
+  </si>
+  <si>
+    <t>PR0014</t>
+  </si>
+  <si>
+    <t>MEMORIAS DE CALCULO SLIDE MAGANGUÉ</t>
+  </si>
+  <si>
+    <t>PR0015</t>
+  </si>
+  <si>
+    <t>MEMORIAS DE CALCULO SLIDE SAN MARCOS</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO III/ANEXO III LISTADOS DE CÁLCULO.pdf</t>
+  </si>
+  <si>
+    <t>ANEXO I PLANOS   s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO I PLANOS
+ANEXO II TCC   s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO II TCC
+ANEXO III    s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO III
+ANEXO IV MEMORIAS HIDRAÚLICA    s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO IV MEMORIAS HIDRAÚLICA
+ANEXO V MEMORIAS ALCANTARILLADO     s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO V MEMORIAS ALCANTARILLADO
+ANEXO VI MEMORIAS ELECTROMECANICO   s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VI MEMORIAS ELECTROMECANICO
+ANEXO VII GEOLOGÍA Y GEOTECNIA   s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 1_Registros de exploracion</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 2_Ensayos de laboratorio</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 3_ Normalizacion SPT</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 4_Analisis de datos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 5_Memorias de calculo</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXO X/ASENTAMIENTO MAGANGUÉ.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXO X/ASENTAMIENTO SAN MARCOS.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXO X/MEMORIAS DE CALCULO SLIDE MAGANGUÉ.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXO X/MEMORIAS DE CALCULO SLIDE SAN MARCOS.pdf</t>
   </si>
 </sst>
 </file>
@@ -256,7 +347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -264,24 +355,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -297,8 +420,11 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -314,8 +440,11 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -331,8 +460,11 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -348,8 +480,11 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -365,8 +500,11 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -382,8 +520,11 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -399,8 +540,11 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -416,6 +560,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -434,6 +581,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -452,6 +602,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -470,6 +623,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -488,6 +644,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -506,6 +665,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -524,6 +686,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -542,6 +707,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -560,6 +728,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -578,6 +749,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -615,6 +789,12 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -637,28 +817,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R16" totalsRowShown="0" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:R16" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="2" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -925,18 +1106,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -945,139 +1127,139 @@
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2017</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" t="s">
         <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>2017</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -1091,49 +1273,49 @@
       <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" t="s">
         <v>38</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
       </c>
       <c r="E4">
         <v>2017</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -1147,37 +1329,37 @@
       <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" t="s">
         <v>45</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -1189,7 +1371,7 @@
         <v>2017</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -1203,49 +1385,49 @@
       <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
+      <c r="O5" t="s">
+        <v>36</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>2017</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -1259,30 +1441,310 @@
       <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1294,15 +1756,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1446,15 +1899,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1470,4 +1924,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/P0021/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0021/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0021/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{CA80EAEF-5550-4412-9473-5F57B7EB9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D3A72D-24F5-474D-B6CF-1E740D54504F}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{CA80EAEF-5550-4412-9473-5F57B7EB9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464DF3A3-A157-4663-9962-D741E87C7DD2}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="270" windowWidth="10050" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="110">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -216,72 +216,6 @@
   </si>
   <si>
     <t>El documento desarrolla las alternativas seleccionadas a nivel de diseño básico y siguiendo el siguiente esquema: 1. Estudio de Hidrología, Hidráulica y Socavación. Con estos estudios se detalla los sistemas hídricos, tanto lóticos como lénticos de los municipios de San Marcos y Magangué. Además, se realiza el análisis de alternativas con la misma estructura del producto dos (2) pero a partir de los datos generados en esta consultoría. 2. Diseño geotécnico básico, el cual tiene como objetivo calcular y efectuar el análisis de la capacidad portante y de los asentamientos que se pueden generar en el terreno por las estructuras proyectadas para el control de inundación en fase de prefactibilidad, con el fin de dar la recomendación del tipo y profundidad de la cimentación para estas estructuras. 3. Criterios de cálculo y justificación del diseño. En esta sección se incluyen las bases consideradas en el diseño preliminar de las diferentes alternativas de proyección que resultaron seleccionadas. 4. Componente predial, aquí se incluye el análisis predial necesario para la implementación de las obras. 5. Estructuras de protección propuestas, en este apartado se resumen las estructuras de protección finalmente seleccionadas, cuyo diseño ha sido justificado en base a los estudios hidráulicos, geotécnicos, estructurales y prediales desarrollados en capítulos anteriores. 6. Consideraciones ambientales, en este componente se describe brevemente las estrategias que contemplan las alternativas seleccionadas para proteger el componente medioambiental. 7. Cantidades de obra y presupuesto y 8. Especificaciones técnicas</t>
-  </si>
-  <si>
-    <t>San Marcos, Magangué, Sucre, Bolívar, Riesgo de inundación, Protección contra inundaciones, Matriz de alternativas, Análisis de alternativas, Infraestructura, Obras de protección, Muros de contención, Hidrología, Hidráulica, Socavación, Geología, Geotecnia, Estructuras, Estructuras de protección, Presupuesto, Especificaciones técnicas, Evaluación de riesgos, Impacto ambiental, Información predial</t>
-  </si>
-  <si>
-    <t>PR0006</t>
-  </si>
-  <si>
-    <t>ANEXO III LISTADOS DE CÁLCULO</t>
-  </si>
-  <si>
-    <t>PR0007</t>
-  </si>
-  <si>
-    <t>Anexo 1_Registros de exploracion</t>
-  </si>
-  <si>
-    <t>PR0008</t>
-  </si>
-  <si>
-    <t>Anexo 2_Ensayos de laboratorio</t>
-  </si>
-  <si>
-    <t>PR0009</t>
-  </si>
-  <si>
-    <t>Anexo 3_ Normalizacion SPT</t>
-  </si>
-  <si>
-    <t>PR0010</t>
-  </si>
-  <si>
-    <t>Anexo 4_Analisis de datos</t>
-  </si>
-  <si>
-    <t>PR0011</t>
-  </si>
-  <si>
-    <t>Anexo 5_Memorias de calculo</t>
-  </si>
-  <si>
-    <t>PR0012</t>
-  </si>
-  <si>
-    <t>ASENTAMIENTO MAGANGUÉ</t>
-  </si>
-  <si>
-    <t>PR0013</t>
-  </si>
-  <si>
-    <t>ASENTAMIENTO SAN MARCOS</t>
-  </si>
-  <si>
-    <t>PR0014</t>
-  </si>
-  <si>
-    <t>MEMORIAS DE CALCULO SLIDE MAGANGUÉ</t>
-  </si>
-  <si>
-    <t>PR0015</t>
-  </si>
-  <si>
-    <t>MEMORIAS DE CALCULO SLIDE SAN MARCOS</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO III/ANEXO III LISTADOS DE CÁLCULO.pdf</t>
   </si>
   <si>
     <t>ANEXO I PLANOS   s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO I PLANOS
@@ -293,38 +227,161 @@
 ANEXO VII GEOLOGÍA Y GEOTECNIA   s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA</t>
   </si>
   <si>
+    <t>San Marcos, Magangué, Sucre, Bolívar, Riesgo de inundación, Protección contra inundaciones, Matriz de alternativas, Análisis de alternativas, Infraestructura, Obras de protección, Muros de contención, Hidrología, Hidráulica, Socavación, Geología, Geotecnia, Estructuras, Estructuras de protección, Presupuesto, Especificaciones técnicas, Evaluación de riesgos, Impacto ambiental, Información predial</t>
+  </si>
+  <si>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>ANEXO III LISTADOS DE CÁLCULO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO III/ANEXO III LISTADOS DE CÁLCULO.pdf</t>
+  </si>
+  <si>
+    <t>El documento contiene un listado de cálculos, datos y graficas de características generales de muros en voladizo construidos en Magangué, Bolívar. Estos análisis fueron realizados en el marco del contrato de consultoría No. 184 – 2017. En el cual se revisa información tanto del Fondo Adaptación como de terceros, para la valoración de alternativas de obras de protección para reducir el riesgo por inundación de los cascos urbanos de los Municipios de San Marcos (Sucre) y Magangué (Bolívar).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento contiene información de los muros construidos en 4 tramos. Para cada muro se presenta información de la geometría (altura del alzado, espesor de la base, anche de la zapata, etc), peso de la estructura, ángulos de rozamiento, talud en el tradós, coeficiente de empuje, presencia de nivel freático,  tipo de terreno, sobrecargas, coeficiente sísmico, coeficiente de seguridad y propiedades de la sección. Además, contiene los planos de la estructura </t>
+  </si>
+  <si>
+    <t>El informe información pertinente sobre los muros en voladizo construidos como obras de contención en el municipio de Magangué.</t>
+  </si>
+  <si>
+    <t>Magangué, muros en voladizo, estructura, geometría, altura del alzado, espesor de la base, anche de la zapata, peso de la estructura, ángulos de rozamiento, talud en el tradós, coeficiente de empuje, presencia de nivel freático,  tipo de terreno, sobrecargas, coeficiente sísmico, coeficiente de seguridad y propiedades de la sección.</t>
+  </si>
+  <si>
+    <t>PR0007</t>
+  </si>
+  <si>
+    <t>Anexo 1_Registros de exploracion</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 1_Registros de exploracion</t>
   </si>
   <si>
+    <t>PR0008</t>
+  </si>
+  <si>
+    <t>Anexo 2_Ensayos de laboratorio</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 2_Ensayos de laboratorio</t>
   </si>
   <si>
+    <t>PR0009</t>
+  </si>
+  <si>
+    <t>Anexo 3_ Normalizacion SPT</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 3_ Normalizacion SPT</t>
   </si>
   <si>
+    <t>PR0010</t>
+  </si>
+  <si>
+    <t>Anexo 4_Analisis de datos</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 4_Analisis de datos</t>
   </si>
   <si>
+    <t>PR0011</t>
+  </si>
+  <si>
+    <t>Anexo 5_Memorias de calculo</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 5_Memorias de calculo</t>
   </si>
   <si>
+    <t>PR0012</t>
+  </si>
+  <si>
+    <t>ASENTAMIENTO MAGANGUÉ</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXO X/ASENTAMIENTO MAGANGUÉ.pdf</t>
   </si>
   <si>
+    <t>INGERCIVIL SAS</t>
+  </si>
+  <si>
+    <t>Rocscience</t>
+  </si>
+  <si>
+    <t>El documento presenta las memorias de análisis del prediseño de las estructuras presentadas como alternativas para el municipio de Magangué, Bolívar. Estos análisis fueron realizados en el marco del contrato de consultoría No. 184 – 2017. En el cual se revisa información tanto del Fondo Adaptación como de terceros, para la valoración de alternativas de obras de protección para reducir el riesgo por inundación de los cascos urbanos de los Municipios de San Marcos (Sucre) y Magangué (Bolívar).</t>
+  </si>
+  <si>
+    <t>El documento contiene los resultados del análisis de Boussinesq para las alternativas presentadas para el municipio de Magangué. El reporte presenta información general del análisis y los resultados, entre los que se encuentra información sobre: tiempo de computación y datos de máximos y mínimos para seis escenarios posibles de 0, 3, 12, 120, 180 y 140 meses respectivamente. Para cada escenario se muestra los valores mínimos y máximos de Esfuerzo de carga, estrés efectivo y pasivo, tensión total, presión del agua, permeabilidad, consolidación y asentamientos.</t>
+  </si>
+  <si>
+    <t>El informe información pertinente sobre los análisis realizados para las alternativas de obras de contención para el municipio de Magangué.</t>
+  </si>
+  <si>
+    <t>Magangué, Bolívar, esfuerzo de carga, estrés efectivo y pasivo, tensión total, presión del agua, permeabilidad, consolidación y asentamientos, análisis de alternativas, obras de contención, análisis de Boussinesq.</t>
+  </si>
+  <si>
+    <t>PR0013</t>
+  </si>
+  <si>
+    <t>ASENTAMIENTO SAN MARCOS</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXO X/ASENTAMIENTO SAN MARCOS.pdf</t>
   </si>
   <si>
+    <t>El documento presenta las memorias de análisis del prediseño de las estructuras presentadas como alternativas para el municipio de San Marcos, Sucre. Estos análisis fueron realizados en el marco del contrato de consultoría No. 184 – 2017. En el cual se revisa información tanto del Fondo Adaptación como de terceros, para la valoración de alternativas de obras de protección para reducir el riesgo por inundación de los cascos urbanos de los Municipios de San Marcos (Sucre) y Magangué (Bolívar).</t>
+  </si>
+  <si>
+    <t>El documento contiene los resultados del análisis de Boussinesq para las alternativas presentadas para el municipio de San Marcos. El reporte presenta información general del análisis y los resultados, entre los que se encuentra información sobre: tiempo de computación y datos de máximos y mínimos para seis escenarios posibles de 0, 3, 12, 120, 180 y 140 meses respectivamente. Para cada escenario se muestra los valores mínimos y máximos de Esfuerzo de carga, estrés efectivo y pasivo, tensión total, presión del agua, permeabilidad, consolidación y asentamientos.</t>
+  </si>
+  <si>
+    <t>El informe información pertinente sobre los análisis realizados para las alternativas de obras de contención para el municipio de San Marcos.</t>
+  </si>
+  <si>
+    <t>San Marcos, Sucre, esfuerzo de carga, estrés efectivo y pasivo, tensión total, presión del agua, permeabilidad, consolidación y asentamientos, análisis de alternativas, obras de contención, análisis de Boussinesq.</t>
+  </si>
+  <si>
+    <t>PR0014</t>
+  </si>
+  <si>
+    <t>MEMORIAS DE CALCULO SLIDE MAGANGUÉ</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXO X/MEMORIAS DE CALCULO SLIDE MAGANGUÉ.pdf</t>
   </si>
   <si>
+    <t>El documento contiene los resultados del análisis de estabilidad para las alternativas presentadas para el municipio de Magangué. Para este análisis se utilizan dos métodos: Bishop Simplificado y Janbu Simplificado. Además, Se definen propiedades del material mediante el modelo de Mohr-Coulomb, con valores de cohesión y ángulo de fricción específicos para diferentes capas presentes en el deslizamiento. Las propiedades de seis capas se detallan, indicando pesos unitarios y resistencias. Se reportan las coordenadas del centro de la superficie de deslizamiento, así como sus extremos y otros parámetros como el radio de curvatura. Además, se presentan fuerzas resistivas y impulsoras, junto con el área total de las secciones. Se analizan las condiciones del agua subterránea y su posible influencia en la estabilidad del talud. Esto se refleja en la inclusión de un análisis de las superficies piezométricas y el peso del fluido por unidad de volumen utilizado en los cálculos. Se presentan tablas con datos detallados del diámetro, cizallamiento y ángulos, así como las fuerzas resistivas y momentos involucrados en cada sección del modelo de deslizamiento.</t>
+  </si>
+  <si>
+    <t>Este documento es esencial para evaluar la seguridad de estructuras geotécnicas y definir las condiciones necesarias para el mantenimiento de la estabilidad del talud frente a diversos factores ambientales.</t>
+  </si>
+  <si>
+    <t>Magangué, Bolívar, SLIDE, estabilidad de talud, método Bishop, método Janbu, factor de seguridad, propiedades del material, Mohr-Coulomb, análisis de agua subterránea, superficies piezométricas, peso unitario, cohesión, ángulo de fricción, fuerzas resistivas, fuerzas impulsoras, geometría del deslizamiento, coordenadas, momento resistente, área total, modelo de deslizamiento, condiciones del sitio, evaluación de seguridad, diseño geotécnico, análisis de estabilidad.</t>
+  </si>
+  <si>
+    <t>PR0015</t>
+  </si>
+  <si>
+    <t>MEMORIAS DE CALCULO SLIDE SAN MARCOS</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 2/ANEXO X/MEMORIAS DE CALCULO SLIDE SAN MARCOS.pdf</t>
+  </si>
+  <si>
+    <t>El documento contiene los resultados del análisis de estabilidad para las alternativas presentadas para el municipio de San Marcos. Para este análisis se utilizan dos métodos: Bishop Simplificado y Janbu Simplificado. Además, Se definen propiedades del material mediante el modelo de Mohr-Coulomb, con valores de cohesión y ángulo de fricción específicos para diferentes capas presentes en el deslizamiento. Las propiedades de seis capas se detallan, indicando pesos unitarios y resistencias. Se reportan las coordenadas del centro de la superficie de deslizamiento, así como sus extremos y otros parámetros como el radio de curvatura. Además, se presentan fuerzas resistivas y impulsoras, junto con el área total de las secciones. Se analizan las condiciones del agua subterránea y su posible influencia en la estabilidad del talud. Esto se refleja en la inclusión de un análisis de las superficies piezométricas y el peso del fluido por unidad de volumen utilizado en los cálculos. Se presentan tablas con datos detallados del diámetro, cizallamiento y ángulos, así como las fuerzas resistivas y momentos involucrados en cada sección del modelo de deslizamiento.</t>
+  </si>
+  <si>
+    <t>San Marcos, Sucre, SLIDE, estabilidad de talud, método Bishop, método Janbu, factor de seguridad, propiedades del material, Mohr-Coulomb, análisis de agua subterránea, superficies piezométricas, peso unitario, cohesión, ángulo de fricción, fuerzas resistivas, fuerzas impulsoras, geometría del deslizamiento, coordenadas, momento resistente, área total, modelo de deslizamiento, condiciones del sitio, evaluación de seguridad, diseño geotécnico, análisis de estabilidad.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,12 +396,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -387,13 +450,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,6 +841,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -795,13 +867,6 @@
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,7 +882,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R16" totalsRowShown="0" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R16" totalsRowShown="0" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:R16" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
@@ -1108,16 +1173,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
@@ -1130,7 +1195,7 @@
     <col min="16" max="16" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1298,7 +1363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1354,7 +1419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1456,56 +1521,84 @@
       <c r="O6" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>81</v>
+      <c r="P6" t="s">
+        <v>59</v>
       </c>
       <c r="Q6" t="s">
         <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1522,18 +1615,18 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>64</v>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1550,18 +1643,18 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>66</v>
+      <c r="B10" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1578,18 +1671,18 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>68</v>
+      <c r="B11" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1606,18 +1699,18 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>70</v>
+      <c r="B12" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1634,117 +1727,229 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1909,27 +2114,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0021/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0021/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0021/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{CA80EAEF-5550-4412-9473-5F57B7EB9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464DF3A3-A157-4663-9962-D741E87C7DD2}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="13_ncr:1_{CA80EAEF-5550-4412-9473-5F57B7EB9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A1BCBB6-1FD8-4F2C-BA73-D3C28EA5F239}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -249,51 +249,6 @@
   </si>
   <si>
     <t>Magangué, muros en voladizo, estructura, geometría, altura del alzado, espesor de la base, anche de la zapata, peso de la estructura, ángulos de rozamiento, talud en el tradós, coeficiente de empuje, presencia de nivel freático,  tipo de terreno, sobrecargas, coeficiente sísmico, coeficiente de seguridad y propiedades de la sección.</t>
-  </si>
-  <si>
-    <t>PR0007</t>
-  </si>
-  <si>
-    <t>Anexo 1_Registros de exploracion</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 1_Registros de exploracion</t>
-  </si>
-  <si>
-    <t>PR0008</t>
-  </si>
-  <si>
-    <t>Anexo 2_Ensayos de laboratorio</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 2_Ensayos de laboratorio</t>
-  </si>
-  <si>
-    <t>PR0009</t>
-  </si>
-  <si>
-    <t>Anexo 3_ Normalizacion SPT</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 3_ Normalizacion SPT</t>
-  </si>
-  <si>
-    <t>PR0010</t>
-  </si>
-  <si>
-    <t>Anexo 4_Analisis de datos</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 4_Analisis de datos</t>
-  </si>
-  <si>
-    <t>PR0011</t>
-  </si>
-  <si>
-    <t>Anexo 5_Memorias de calculo</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0021/02_PRODUCTOS/Producto 3/ANEXO VII GEOLOGÍA Y GEOTECNIA/Anexo 5_Memorias de calculo</t>
   </si>
   <si>
     <t>PR0012</t>
@@ -396,18 +351,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -450,15 +399,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,8 +829,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R16" totalsRowShown="0" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
-  <autoFilter ref="A1:R16" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R11" totalsRowShown="0" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:R11" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1171,17 +1118,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
@@ -1587,11 +1534,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1600,357 +1547,251 @@
       <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="E8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" ht="15">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>74</v>
+      <c r="B10" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2017</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2017</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2017</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
+    <row r="12" spans="1:18" ht="15"/>
+    <row r="13" spans="1:18" ht="15"/>
+    <row r="14" spans="1:18" ht="15"/>
+    <row r="15" spans="1:18" ht="15"/>
+    <row r="16" spans="1:18" ht="15"/>
+    <row r="17" ht="15"/>
+    <row r="18" ht="15"/>
+    <row r="19" ht="15"/>
+    <row r="20" ht="15"/>
+    <row r="21" ht="15"/>
+    <row r="22" ht="15"/>
+    <row r="23" ht="15"/>
+    <row r="24" ht="15"/>
+    <row r="25" ht="15"/>
+    <row r="26" ht="15"/>
+    <row r="27" ht="15"/>
+    <row r="28" ht="15"/>
+    <row r="29" ht="15"/>
+    <row r="30" ht="15"/>
+    <row r="31" ht="15"/>
+    <row r="32" ht="15"/>
+    <row r="33" ht="15"/>
+    <row r="34" ht="15"/>
+    <row r="35" ht="15"/>
+    <row r="36" ht="15"/>
+    <row r="37" ht="15"/>
+    <row r="38" ht="15"/>
+    <row r="39" ht="15"/>
+    <row r="40" ht="15"/>
+    <row r="41" ht="15"/>
+    <row r="42" ht="15"/>
+    <row r="43" ht="15"/>
+    <row r="44" ht="15"/>
+    <row r="45" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
